--- a/biology/Médecine/Athalamie/Athalamie.xlsx
+++ b/biology/Médecine/Athalamie/Athalamie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 athalamie, sur le Wiktionnaire
-L'Athalamie est un signe clinique ophtalmologique observé à la lampe à fente (ou biomicroscope) lors d'une plaie du globe oculaire (fistulation externe de l'humeur aqueuse) caractérisée par l'aplatissement de la chambre antérieure de l'œil sous l'effet de l'hypertension intra-oculaire (notamment en cas de GAFA)[1]. Celle-ci se produit par l'adossement de l'iris à la face postérieure de la cornée. Elle peut être le résultat passager de certaines opérations oculaires (glaucome, cataracte). Elle est presque toujours accompagnée d'hypotonie[2].
+L'Athalamie est un signe clinique ophtalmologique observé à la lampe à fente (ou biomicroscope) lors d'une plaie du globe oculaire (fistulation externe de l'humeur aqueuse) caractérisée par l'aplatissement de la chambre antérieure de l'œil sous l'effet de l'hypertension intra-oculaire (notamment en cas de GAFA). Celle-ci se produit par l'adossement de l'iris à la face postérieure de la cornée. Elle peut être le résultat passager de certaines opérations oculaires (glaucome, cataracte). Elle est presque toujours accompagnée d'hypotonie.
 </t>
         </is>
       </c>
